--- a/files/homework/homework_2.xlsx
+++ b/files/homework/homework_2.xlsx
@@ -401,7 +401,7 @@
     <t>答案字数</t>
   </si>
   <si>
-    <t>https://zhangjianzhang.gitee.io/internet_credit/files/materials/chapter_3/chapter_3_exercise.pdf</t>
+    <t>https://zhangjianzhang.github.io/internet_credit/files/materials/chapter_3/chapter_3_exercise.pdf</t>
   </si>
   <si>
     <t>请在此处作答，</t>
@@ -2281,7 +2281,7 @@
   <dimension ref="B1:S42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3057,7 +3057,7 @@
     <mergeCell ref="B9:S42"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="https://zhangjianzhang.gitee.io/internet_credit/files/materials/chapter_3/chapter_3_exercise.pdf"/>
+    <hyperlink ref="B6" r:id="rId1" display="https://zhangjianzhang.github.io/internet_credit/files/materials/chapter_3/chapter_3_exercise.pdf"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3070,7 +3070,7 @@
   <dimension ref="B1:S42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3867,7 +3867,7 @@
     <mergeCell ref="B9:S42"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="https://zhangjianzhang.gitee.io/internet_credit/files/materials/chapter_3/chapter_3_exercise.pdf"/>
+    <hyperlink ref="B6" r:id="rId1" display="https://zhangjianzhang.github.io/internet_credit/files/materials/chapter_3/chapter_3_exercise.pdf"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/files/homework/homework_2.xlsx
+++ b/files/homework/homework_2.xlsx
@@ -20,6 +20,14 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>题目</t>
     </r>
     <r>
@@ -131,25 +139,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月采用新的赊销政策后，</t>
+      <t>年7月采用新的赊销政策后，</t>
     </r>
     <r>
       <rPr>
@@ -350,6 +340,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>第三章课后思考题</t>
     </r>
     <r>
@@ -408,6 +405,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>第三章课后思考题</t>
     </r>
     <r>
@@ -461,11 +465,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -540,13 +544,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -561,6 +558,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -569,8 +581,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -585,7 +598,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -607,9 +620,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -625,7 +638,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -638,31 +651,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -677,7 +667,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -709,18 +713,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -736,7 +734,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,25 +758,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,7 +776,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,61 +806,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,7 +818,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,7 +842,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,31 +902,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1083,17 +1081,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1122,21 +1126,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1153,16 +1142,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1182,152 +1180,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="21" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="16" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="21" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="20" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="19" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="16" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="19" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="20" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1457,9 +1455,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
@@ -1471,9 +1466,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -1836,7 +1828,7 @@
   <dimension ref="A3:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1855,163 +1847,149 @@
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="42"/>
-      <c r="E4" s="59"/>
+      <c r="E4" s="57"/>
     </row>
     <row r="5" ht="20.25" spans="1:5">
-      <c r="A5" s="43"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="60"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="58"/>
     </row>
     <row r="6" ht="20.25" spans="1:5">
-      <c r="A6" s="43"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="60"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="58"/>
     </row>
     <row r="7" ht="20.25" spans="1:5">
-      <c r="A7" s="43"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="60"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="58"/>
     </row>
     <row r="8" ht="20.25" spans="1:5">
-      <c r="A8" s="43"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="60"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="58"/>
     </row>
     <row r="9" ht="20.25" spans="1:5">
-      <c r="A9" s="43"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="60"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="58"/>
     </row>
     <row r="10" ht="27" customHeight="true" spans="1:5">
-      <c r="A10" s="43"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="61"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="59"/>
     </row>
     <row r="12" ht="14.25"/>
-    <row r="13" ht="25" customHeight="true" spans="1:5">
-      <c r="A13" s="48"/>
-      <c r="B13" s="49" t="s">
+    <row r="13" ht="25" customHeight="true" spans="2:5">
+      <c r="B13" s="47" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="48" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="31" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" ht="20.25" spans="1:5">
-      <c r="A14" s="48"/>
-      <c r="B14" s="51" t="s">
+    <row r="14" ht="20.25" spans="2:5">
+      <c r="B14" s="49" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="34">
         <v>20</v>
       </c>
-      <c r="D14" s="52">
+      <c r="D14" s="50">
         <v>10</v>
       </c>
       <c r="E14" s="34">
         <v>10</v>
       </c>
     </row>
-    <row r="15" ht="20.25" spans="1:5">
-      <c r="A15" s="48"/>
-      <c r="B15" s="51" t="s">
+    <row r="15" ht="20.25" spans="2:5">
+      <c r="B15" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="53">
+      <c r="C15" s="51">
         <v>0.02</v>
       </c>
-      <c r="D15" s="54">
+      <c r="D15" s="52">
         <v>0.03</v>
       </c>
-      <c r="E15" s="53">
+      <c r="E15" s="51">
         <v>0.02</v>
       </c>
     </row>
-    <row r="16" ht="20.25" spans="1:5">
-      <c r="A16" s="48"/>
-      <c r="B16" s="51" t="s">
+    <row r="16" ht="20.25" spans="2:5">
+      <c r="B16" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="53">
+      <c r="C16" s="51">
         <v>0.98</v>
       </c>
-      <c r="D16" s="54">
+      <c r="D16" s="52">
         <v>0.95</v>
       </c>
-      <c r="E16" s="53">
+      <c r="E16" s="51">
         <v>0.9</v>
       </c>
     </row>
-    <row r="17" ht="20.25" spans="1:5">
-      <c r="A17" s="48"/>
-      <c r="B17" s="51" t="s">
+    <row r="17" ht="20.25" spans="2:5">
+      <c r="B17" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="53">
+      <c r="C17" s="51">
         <v>0.5</v>
       </c>
-      <c r="D17" s="54">
+      <c r="D17" s="52">
         <v>0.7</v>
       </c>
-      <c r="E17" s="53">
+      <c r="E17" s="51">
         <v>0.8</v>
       </c>
     </row>
-    <row r="18" ht="21" spans="1:5">
-      <c r="A18" s="48"/>
-      <c r="B18" s="55" t="s">
+    <row r="18" ht="21" spans="2:5">
+      <c r="B18" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="56">
+      <c r="C18" s="54">
         <v>0.005</v>
       </c>
-      <c r="D18" s="57">
+      <c r="D18" s="55">
         <v>0.006</v>
       </c>
-      <c r="E18" s="56">
+      <c r="E18" s="54">
         <v>0.008</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="48"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="48"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="48"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="48"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
+    <row r="21" spans="2:4">
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2026,10 +2004,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A5:N19"/>
+  <dimension ref="A6:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="B6" sqref="B6:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2046,7 +2024,6 @@
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" ht="14.25"/>
     <row r="6" spans="2:8">
       <c r="B6" s="24" t="s">
         <v>10</v>
@@ -3031,7 +3008,7 @@
       <c r="R41" s="12"/>
       <c r="S41" s="22"/>
     </row>
-    <row r="42" spans="2:19">
+    <row r="42" ht="14.25" spans="2:19">
       <c r="B42" s="13"/>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
@@ -3096,7 +3073,6 @@
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
       <c r="M2" s="16"/>
-      <c r="N2" s="1"/>
       <c r="O2" s="17" t="s">
         <v>15</v>
       </c>
@@ -3110,11 +3086,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
       <c r="M3" s="18"/>
-      <c r="N3" s="1"/>
       <c r="O3" s="19">
         <f>LEN(B9)</f>
         <v>7</v>
@@ -3129,9 +3101,6 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
       <c r="M4" s="18"/>
     </row>
     <row r="5" s="1" customFormat="true" ht="14" customHeight="true" spans="2:13">
@@ -3143,25 +3112,12 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
       <c r="M5" s="18"/>
     </row>
     <row r="6" s="1" customFormat="true" ht="21" spans="2:13">
       <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
       <c r="M6" s="18"/>
     </row>
     <row r="7" s="1" customFormat="true" ht="14.25" spans="2:13">

--- a/files/homework/homework_2.xlsx
+++ b/files/homework/homework_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27240" windowHeight="12705"/>
+    <workbookView windowWidth="28065" windowHeight="12705"/>
   </bookViews>
   <sheets>
     <sheet name="计算题1" sheetId="1" r:id="rId1"/>
@@ -112,6 +112,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>题目：</t>
     </r>
     <r>
@@ -466,10 +473,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -558,16 +565,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -583,15 +582,22 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -604,25 +610,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -636,23 +641,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -667,7 +658,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -680,8 +686,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -734,13 +741,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,7 +759,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,13 +819,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,7 +885,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,115 +915,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1087,6 +1094,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1102,11 +1118,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1140,125 +1182,90 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="16" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="16" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="19" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="20" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="22" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="18" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1267,61 +1274,61 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="21" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2004,7 +2011,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A6:N19"/>
+  <dimension ref="A5:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6:H15"/>
@@ -2024,6 +2031,7 @@
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
+    <row r="5" ht="14.25"/>
     <row r="6" spans="2:8">
       <c r="B6" s="24" t="s">
         <v>10</v>
@@ -3047,7 +3055,7 @@
   <dimension ref="B1:S42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
